--- a/data/trans_dic/P9_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,81</t>
+          <t>14,77; 19,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,04</t>
+          <t>21,91; 27,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 26,19</t>
+          <t>20,01; 26,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 34,17</t>
+          <t>26,7; 33,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 28,91</t>
+          <t>23,93; 28,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 40,09</t>
+          <t>34,45; 40,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 40,08</t>
+          <t>33,96; 40,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 47,37</t>
+          <t>41,72; 47,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,14</t>
+          <t>20,76; 24,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,06</t>
+          <t>30,01; 33,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,63; 33,18</t>
+          <t>29,02; 33,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,51; 41,26</t>
+          <t>36,48; 41,09</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,83</t>
+          <t>4,41; 6,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,24</t>
+          <t>5,91; 8,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,49</t>
+          <t>6,08; 8,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,49</t>
+          <t>10,39; 13,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,77</t>
+          <t>8,73; 11,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 13,43</t>
+          <t>9,93; 13,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,97</t>
+          <t>11,69; 14,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,11</t>
+          <t>12,17; 16,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 11,19</t>
+          <t>9,25; 11,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,42</t>
+          <t>11,97; 14,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,7</t>
+          <t>2,94; 6,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,26</t>
+          <t>4,23; 9,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,96</t>
+          <t>3,62; 8,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,38</t>
+          <t>5,95; 10,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,15</t>
+          <t>6,59; 11,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,91</t>
+          <t>5,8; 11,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,87</t>
+          <t>7,43; 13,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,77</t>
+          <t>7,98; 11,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,35</t>
+          <t>5,13; 8,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,27</t>
+          <t>5,38; 9,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,45</t>
+          <t>6,27; 9,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,49</t>
+          <t>7,44; 10,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,12; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 13,25</t>
+          <t>10,95; 13,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 11,68</t>
+          <t>9,53; 11,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 15,42</t>
+          <t>12,71; 15,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,12; 17,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,21</t>
+          <t>19,47; 22,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 21,02</t>
+          <t>17,91; 21,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 21,45</t>
+          <t>18,25; 21,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,95; 13,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 17,42</t>
+          <t>15,5; 17,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,98</t>
+          <t>14,09; 15,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 18,25</t>
+          <t>16,28; 18,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_1_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,5</t>
+          <t>14,75; 19,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 27,76</t>
+          <t>22,01; 27,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,07</t>
+          <t>20,01; 26,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,93; 28,84</t>
+          <t>24,01; 29,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,45; 40,02</t>
+          <t>34,65; 39,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,96; 40,33</t>
+          <t>34,05; 40,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 24,44</t>
+          <t>20,83; 24,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 33,95</t>
+          <t>30,02; 34,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 33,52</t>
+          <t>28,67; 33,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,74</t>
+          <t>4,56; 6,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,19</t>
+          <t>5,83; 8,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,35</t>
+          <t>6,15; 8,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 11,77</t>
+          <t>8,71; 11,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,23</t>
+          <t>10,04; 13,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 14,95</t>
+          <t>11,69; 14,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 8,76</t>
+          <t>6,85; 8,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 10,29</t>
+          <t>8,21; 10,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 11,19</t>
+          <t>9,18; 11,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,76</t>
+          <t>2,98; 6,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,39</t>
+          <t>4,3; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,09</t>
+          <t>3,6; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 11,87</t>
+          <t>6,53; 12,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,29</t>
+          <t>5,67; 10,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,08</t>
+          <t>7,55; 12,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,34</t>
+          <t>5,18; 8,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,16</t>
+          <t>5,38; 9,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,79</t>
+          <t>6,11; 9,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,05</t>
+          <t>8,08; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 13,2</t>
+          <t>10,92; 13,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,68</t>
+          <t>9,42; 11,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 17,72</t>
+          <t>15,14; 17,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,47; 22,23</t>
+          <t>19,51; 22,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 21,0</t>
+          <t>18,14; 20,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,54</t>
+          <t>11,97; 13,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 17,38</t>
+          <t>15,62; 17,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 15,95</t>
+          <t>14,2; 15,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
